--- a/lab03/ДФЭ.xlsx
+++ b/lab03/ДФЭ.xlsx
@@ -539,27 +539,27 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.027</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.028</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.049</t>
+          <t>0.045</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.017</t>
         </is>
       </c>
     </row>
@@ -599,22 +599,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.093</t>
+          <t>0.099</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.050</t>
+          <t>0.053</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.057</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -659,27 +659,27 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.091</t>
+          <t>0.101</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.050</t>
+          <t>0.053</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.051</t>
+          <t>0.061</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.014</t>
         </is>
       </c>
     </row>
@@ -719,27 +719,27 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.254</t>
+          <t>0.294</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.153</t>
+          <t>0.172</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.218</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.101</t>
+          <t>0.121</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.044</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -794,12 +794,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.007</t>
         </is>
       </c>
     </row>
@@ -839,12 +839,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.034</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.025</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -854,12 +854,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>0.006</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.014</t>
         </is>
       </c>
     </row>
@@ -899,22 +899,22 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.024</t>
+          <t>0.026</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.047</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.008</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -959,27 +959,27 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.033</t>
+          <t>0.029</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.086</t>
+          <t>0.098</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0.045</t>
+          <t>0.047</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.053</t>
+          <t>0.068</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.017</t>
         </is>
       </c>
     </row>
